--- a/VoidWanderers.rte/Tools/RandomPlanetCoords.xlsx
+++ b/VoidWanderers.rte/Tools/RandomPlanetCoords.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Data Realms\Cortex Command V105 VW\VoidWanderers.rte\Tools\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="5205"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -77,6 +82,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -124,7 +132,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -159,7 +167,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,7 +379,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,181 +407,181 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">RAND()*48</f>
-        <v>9.4285331926286418</v>
+        <v>22.823064356213607</v>
       </c>
       <c r="B2">
         <f ca="1">RAND()*360</f>
-        <v>137.93756651550356</v>
+        <v>284.46506476512349</v>
       </c>
       <c r="C2" s="1">
         <f ca="1">SIN(B2) * A2</f>
-        <v>-2.7187811518512666</v>
+        <v>22.563605615486068</v>
       </c>
       <c r="D2" s="1">
         <f ca="1">COS(B2) * A2</f>
-        <v>9.0280378384695723</v>
+        <v>-3.4316130662814563</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A11" ca="1" si="0">RAND()*48</f>
-        <v>6.3619039281408334</v>
+        <v>8.1733280720456705</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B11" ca="1" si="1">RAND()*360</f>
-        <v>319.60737384717731</v>
+        <v>152.2022036199339</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C11" ca="1" si="2">SIN(B3) * A3</f>
-        <v>-4.7163851905491585</v>
+        <v>8.0622670222442814</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D11" ca="1" si="3">COS(B3) * A3</f>
-        <v>4.2696056404851195</v>
+        <v>1.3428113178410914</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1085066777353241</v>
+        <v>0.10122283432039403</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>169.41623637551785</v>
+        <v>36.414706965675748</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.074467620094262</v>
+        <v>-9.7099978416488028E-2</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8.8691306220806911</v>
+        <v>2.8594691454385326E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>27.643630127748338</v>
+        <v>18.309363988369039</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>81.479243465339295</v>
+        <v>6.110037143091982</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.5505983545026236</v>
+        <v>-3.1544157409060976</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>27.080641509143543</v>
+        <v>18.03558901151024</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>29.752998342460675</v>
+        <v>4.3925158087665537</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>212.17870997398265</v>
+        <v>335.51877690035298</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-29.534717204970832</v>
+        <v>2.5936344734812478</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3.597414347676323</v>
+        <v>-3.5450324890237246</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4631611990053006</v>
+        <v>18.29841014298183</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>354.048801539073</v>
+        <v>50.908603532668856</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0052460819878859</v>
+        <v>10.973482085120287</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.430437430633533</v>
+        <v>14.642899463163859</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>20.047336155702723</v>
+        <v>35.197614596534784</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>129.17038106899673</v>
+        <v>34.76784885370791</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.157423151730181</v>
+        <v>-7.3486392929191657</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-18.72610426027855</v>
+        <v>-34.421934487020962</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1366531317426833</v>
+        <v>15.384110932115457</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>38.126799587779921</v>
+        <v>295.50019478563473</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88621519450313424</v>
+        <v>2.9127581307157531</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9441988669931862</v>
+        <v>15.105850166196657</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>15.539773546156056</v>
+        <v>44.411827267712553</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>192.93071517009557</v>
+        <v>333.55803630857542</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-14.946409473684842</v>
+        <v>23.183767034940605</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-4.2531641998347025</v>
+        <v>37.880382090558932</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1662040386386696</v>
+        <v>33.125889201646139</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>47.413046463988756</v>
+        <v>291.3714402466918</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.1879680771394754</v>
+        <v>23.686224994128313</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.9932427849138725</v>
+        <v>-23.157877297525943</v>
       </c>
     </row>
   </sheetData>
